--- a/data/trans_dic/P6907S1-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P6907S1-Clase-trans_dic.xlsx
@@ -708,17 +708,17 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.05697467616362633</v>
+        <v>0.0567173430810711</v>
       </c>
       <c r="D5" s="5" t="inlineStr"/>
       <c r="E5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.03631387080245266</v>
+        <v>0.03548815950093809</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.04987487637232323</v>
+        <v>0.04566324368629487</v>
       </c>
       <c r="H5" s="5" t="n">
         <v>0</v>
@@ -727,10 +727,10 @@
         <v>0</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.07209628566157433</v>
+        <v>0.06944630926729954</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.06880431116724264</v>
+        <v>0.07362993192868202</v>
       </c>
       <c r="L5" s="5" t="n">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.07037207308634476</v>
+        <v>0.06788075099739486</v>
       </c>
     </row>
     <row r="6">
@@ -750,38 +750,38 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2103634791592541</v>
+        <v>0.2118868632757079</v>
       </c>
       <c r="D6" s="5" t="inlineStr"/>
       <c r="E6" s="5" t="n">
-        <v>0.1165568275931882</v>
+        <v>0.1322438026685207</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.2571321188857565</v>
+        <v>0.2524735646953359</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.2473661635711588</v>
+        <v>0.2582569889304557</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.3502994007840067</v>
+        <v>0.3477182148117394</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1341015749136404</v>
+        <v>0.09501952081232452</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.2233178811448716</v>
+        <v>0.2148381833668622</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1879910119011123</v>
+        <v>0.2086648316602203</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.1529551732207322</v>
+        <v>0.1603348239553719</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.07299735473926003</v>
+        <v>0.09284353302246129</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.2090661449618988</v>
+        <v>0.1983190715540492</v>
       </c>
     </row>
     <row r="7">
@@ -805,7 +805,7 @@
         <v>0.05831695278809421</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.0970846695718601</v>
+        <v>0.09708466957186011</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.1034997395078354</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.1421952556845741</v>
+        <v>0.1421952556845742</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.1411003780017939</v>
@@ -840,7 +840,7 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.07068137868951969</v>
+        <v>0.07164012518898992</v>
       </c>
       <c r="D8" s="5" t="n">
         <v>0</v>
@@ -849,20 +849,20 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.03477704208805292</v>
+        <v>0.03564271079343124</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.02751155320798078</v>
+        <v>0.02716782219563732</v>
       </c>
       <c r="H8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="I8" s="5" t="inlineStr"/>
       <c r="J8" s="5" t="n">
-        <v>0.05972141852166617</v>
+        <v>0.06147509526664022</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.07716146978816024</v>
+        <v>0.06688564010259401</v>
       </c>
       <c r="L8" s="5" t="n">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.06027890846955695</v>
+        <v>0.06253250028715202</v>
       </c>
     </row>
     <row r="9">
@@ -882,38 +882,38 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.3550923180458123</v>
+        <v>0.3571521289178269</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.213537030488263</v>
+        <v>0.2910875173073245</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1884114185781589</v>
+        <v>0.1878510672963208</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2252446459291906</v>
+        <v>0.2171326622123743</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2287365274073292</v>
+        <v>0.2319994295781803</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.5931034142891437</v>
+        <v>0.6483995799054321</v>
       </c>
       <c r="I9" s="5" t="inlineStr"/>
       <c r="J9" s="5" t="n">
-        <v>0.3126278164067119</v>
+        <v>0.294828152396806</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.2454363228580052</v>
+        <v>0.2376268471255366</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.2140672536277236</v>
+        <v>0.2086488325357397</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.09670540243635677</v>
+        <v>0.09282626409251785</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.2113851829436228</v>
+        <v>0.2074116753608998</v>
       </c>
     </row>
     <row r="10">
@@ -949,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.1011088076578209</v>
+        <v>0.101108807657821</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.09053573148817126</v>
@@ -972,16 +972,16 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.04706339134663603</v>
+        <v>0.0397505657763835</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.02855895761460877</v>
+        <v>0.02823714087443122</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.03098493325931853</v>
+        <v>0.03155990473266203</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1282043837617211</v>
+        <v>0.1281037446800982</v>
       </c>
       <c r="G11" s="5" t="n">
         <v>0</v>
@@ -989,19 +989,19 @@
       <c r="H11" s="5" t="inlineStr"/>
       <c r="I11" s="5" t="inlineStr"/>
       <c r="J11" s="5" t="n">
-        <v>0.02353746880250629</v>
+        <v>0.02392151428116663</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.04330337113312369</v>
+        <v>0.04548284784921097</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.01741622664871293</v>
+        <v>0.01714425725982423</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.02672396542913008</v>
+        <v>0.02786731647531322</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1211235092401854</v>
+        <v>0.1114247878295929</v>
       </c>
     </row>
     <row r="12">
@@ -1012,36 +1012,36 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1883983472783232</v>
+        <v>0.1792657486000806</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.217780165955017</v>
+        <v>0.2158063794379508</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1746272348897726</v>
+        <v>0.1756730981489765</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.4092360806881852</v>
+        <v>0.4096623625235723</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.2687545592028596</v>
+        <v>0.3157586612921678</v>
       </c>
       <c r="H12" s="5" t="inlineStr"/>
       <c r="I12" s="5" t="inlineStr"/>
       <c r="J12" s="5" t="n">
-        <v>0.269641331961513</v>
+        <v>0.2900511680804707</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1709280031447438</v>
+        <v>0.1774902282648607</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.1348204277992789</v>
+        <v>0.1510649129521724</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.1572940930201379</v>
+        <v>0.149288258935623</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.3490088975144012</v>
+        <v>0.3442068452925502</v>
       </c>
     </row>
     <row r="13">
@@ -1100,38 +1100,38 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.02901325022679535</v>
+        <v>0.03240995002752859</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.01956616654040988</v>
+        <v>0.01861776396147926</v>
       </c>
       <c r="E14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.03593149035129761</v>
+        <v>0.03605857921186015</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.06217788064769088</v>
+        <v>0.06171794085036979</v>
       </c>
       <c r="H14" s="5" t="inlineStr"/>
       <c r="I14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.03714823154207388</v>
+        <v>0.03611854723918646</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.05007859411934668</v>
+        <v>0.04845258875724093</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.01062935176655711</v>
+        <v>0.01093811501364455</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.004223569409403303</v>
+        <v>0.004912908364882014</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.04426612246267145</v>
+        <v>0.04263634087278156</v>
       </c>
     </row>
     <row r="15">
@@ -1142,38 +1142,38 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.09940040820008596</v>
+        <v>0.1051753066552808</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1648503942736847</v>
+        <v>0.1772756791494824</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.04281688359842391</v>
+        <v>0.04755897822736024</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1194086292589291</v>
+        <v>0.1193902664301026</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2646317921420415</v>
+        <v>0.2797183207272342</v>
       </c>
       <c r="H15" s="5" t="inlineStr"/>
       <c r="I15" s="5" t="n">
-        <v>0.09100651939215333</v>
+        <v>0.08266194000489707</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1383095095371157</v>
+        <v>0.1354297877635182</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1203578644141959</v>
+        <v>0.1182003026690799</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.09740685310582588</v>
+        <v>0.1010676229747747</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.04167674881221045</v>
+        <v>0.04380988548420223</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1095867340505178</v>
+        <v>0.1065540708075908</v>
       </c>
     </row>
     <row r="16">
@@ -1232,34 +1232,34 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.03922466208964878</v>
+        <v>0.04309574272910788</v>
       </c>
       <c r="D17" s="5" t="inlineStr"/>
       <c r="E17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.02127054122461268</v>
+        <v>0.01986630558697846</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.02815204217538459</v>
+        <v>0.03048570977602762</v>
       </c>
       <c r="H17" s="5" t="inlineStr"/>
       <c r="I17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.02442346038964832</v>
+        <v>0.02270980880659521</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.04665740692460373</v>
+        <v>0.04755100594802721</v>
       </c>
       <c r="L17" s="5" t="inlineStr"/>
       <c r="M17" s="5" t="n">
-        <v>0.008878607708650444</v>
+        <v>0.01263090280086375</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.03041675359564221</v>
+        <v>0.03104926020244178</v>
       </c>
     </row>
     <row r="18">
@@ -1270,34 +1270,34 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.202048371561614</v>
+        <v>0.2112809665874489</v>
       </c>
       <c r="D18" s="5" t="inlineStr"/>
       <c r="E18" s="5" t="n">
-        <v>0.09183311796685607</v>
+        <v>0.1036176866993311</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1542909198525553</v>
+        <v>0.1744996532615805</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1573030718200932</v>
+        <v>0.1669559841349464</v>
       </c>
       <c r="H18" s="5" t="inlineStr"/>
       <c r="I18" s="5" t="n">
-        <v>0.1844651426155891</v>
+        <v>0.1659405173227977</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1006415094033042</v>
+        <v>0.09587055145755119</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1565194614629476</v>
+        <v>0.1591752454048823</v>
       </c>
       <c r="L18" s="5" t="inlineStr"/>
       <c r="M18" s="5" t="n">
-        <v>0.08841465389338825</v>
+        <v>0.1030666949346645</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.09656595364432839</v>
+        <v>0.0953590440583789</v>
       </c>
     </row>
     <row r="19">
@@ -1345,7 +1345,7 @@
         <v>0.03107256279413963</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0.09691723783741805</v>
+        <v>0.09691723783741804</v>
       </c>
     </row>
     <row r="20">
@@ -1356,40 +1356,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.06913572457270538</v>
+        <v>0.06721882422434443</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.02726088378649663</v>
+        <v>0.02646766334132671</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.01928503967461251</v>
+        <v>0.01756706258717588</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.07508073457716644</v>
+        <v>0.07172814440834813</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.07155843227762516</v>
+        <v>0.074898073833478</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.008967359125121237</v>
+        <v>0.00029510510445514</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.008903274207891901</v>
+        <v>0.008716335414728993</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.06555718227462116</v>
+        <v>0.06511962500649063</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.07582522091171168</v>
+        <v>0.0753868709165062</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.02353232510261353</v>
+        <v>0.02331544189016896</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.01915936545519582</v>
+        <v>0.01838888204597694</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.0756639749069952</v>
+        <v>0.07422105308332935</v>
       </c>
     </row>
     <row r="21">
@@ -1400,40 +1400,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.1269570171588757</v>
+        <v>0.1228715741606439</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.1063297267122749</v>
+        <v>0.1005730843511929</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.05647942569834288</v>
+        <v>0.06052529138787869</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.1492238233511179</v>
+        <v>0.1416208733048175</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.1528638663928821</v>
+        <v>0.1551129796159994</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.07968909856953987</v>
+        <v>0.08431024124503823</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.054498297357329</v>
+        <v>0.05589473092014268</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.1242376106426608</v>
+        <v>0.1218627871851725</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.1241875076940045</v>
+        <v>0.1210518082130286</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.07524345528342215</v>
+        <v>0.0725616077773812</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.04734982945718486</v>
+        <v>0.04943962496691168</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.1225763876472271</v>
+        <v>0.1220296115617817</v>
       </c>
     </row>
     <row r="22">
@@ -1705,17 +1705,17 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>3708</v>
+        <v>3691</v>
       </c>
       <c r="D6" s="6" t="inlineStr"/>
       <c r="E6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>1858</v>
+        <v>1816</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>2327</v>
+        <v>2130</v>
       </c>
       <c r="H6" s="6" t="n">
         <v>0</v>
@@ -1724,10 +1724,10 @@
         <v>0</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>4408</v>
+        <v>4246</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>7688</v>
+        <v>8227</v>
       </c>
       <c r="L6" s="6" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>7903</v>
+        <v>7623</v>
       </c>
     </row>
     <row r="7">
@@ -1747,38 +1747,38 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>13691</v>
+        <v>13790</v>
       </c>
       <c r="D7" s="6" t="inlineStr"/>
       <c r="E7" s="6" t="n">
-        <v>5468</v>
+        <v>6204</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>13156</v>
+        <v>12918</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>11540</v>
+        <v>12048</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>6132</v>
+        <v>6086</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>6160</v>
+        <v>4365</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>13654</v>
+        <v>13136</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>21005</v>
+        <v>23315</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>6155</v>
+        <v>6452</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>6777</v>
+        <v>8620</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>23479</v>
+        <v>22272</v>
       </c>
     </row>
     <row r="8">
@@ -1881,7 +1881,7 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>2994</v>
+        <v>3034</v>
       </c>
       <c r="D10" s="6" t="n">
         <v>0</v>
@@ -1890,20 +1890,20 @@
         <v>0</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>1810</v>
+        <v>1856</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>1145</v>
+        <v>1131</v>
       </c>
       <c r="H10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I10" s="6" t="inlineStr"/>
       <c r="J10" s="6" t="n">
-        <v>2715</v>
+        <v>2794</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>6479</v>
+        <v>5616</v>
       </c>
       <c r="L10" s="6" t="n">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>5878</v>
+        <v>6098</v>
       </c>
     </row>
     <row r="11">
@@ -1923,38 +1923,38 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>15040</v>
+        <v>15127</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>4416</v>
+        <v>6019</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>5697</v>
+        <v>5680</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>11726</v>
+        <v>11304</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>9519</v>
+        <v>9655</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>3662</v>
+        <v>4004</v>
       </c>
       <c r="I11" s="6" t="inlineStr"/>
       <c r="J11" s="6" t="n">
-        <v>14210</v>
+        <v>13401</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>20609</v>
+        <v>19954</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>5748</v>
+        <v>5603</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>5767</v>
+        <v>5535</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>20613</v>
+        <v>20225</v>
       </c>
     </row>
     <row r="12">
@@ -2057,16 +2057,16 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>4708</v>
+        <v>3976</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>925</v>
+        <v>915</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>2044</v>
+        <v>2082</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>7883</v>
+        <v>7876</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0</v>
@@ -2074,19 +2074,19 @@
       <c r="H14" s="6" t="inlineStr"/>
       <c r="I14" s="6" t="inlineStr"/>
       <c r="J14" s="6" t="n">
-        <v>482</v>
+        <v>489</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>5037</v>
+        <v>5290</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>918</v>
+        <v>904</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>2018</v>
+        <v>2105</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>9925</v>
+        <v>9130</v>
       </c>
     </row>
     <row r="15">
@@ -2097,36 +2097,36 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>18845</v>
+        <v>17932</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>7055</v>
+        <v>6991</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>11518</v>
+        <v>11587</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>25162</v>
+        <v>25188</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>4377</v>
+        <v>5143</v>
       </c>
       <c r="H15" s="6" t="inlineStr"/>
       <c r="I15" s="6" t="inlineStr"/>
       <c r="J15" s="6" t="n">
-        <v>5516</v>
+        <v>5934</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>19882</v>
+        <v>20645</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>7109</v>
+        <v>7965</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>11880</v>
+        <v>11275</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>28598</v>
+        <v>28205</v>
       </c>
     </row>
     <row r="16">
@@ -2229,38 +2229,38 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>5803</v>
+        <v>6482</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>1046</v>
+        <v>995</v>
       </c>
       <c r="E18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>5450</v>
+        <v>5470</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>3106</v>
+        <v>3083</v>
       </c>
       <c r="H18" s="6" t="inlineStr"/>
       <c r="I18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>4205</v>
+        <v>4088</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>12517</v>
+        <v>12111</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>943</v>
+        <v>970</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>933</v>
+        <v>1085</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>11725</v>
+        <v>11294</v>
       </c>
     </row>
     <row r="19">
@@ -2271,38 +2271,38 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>19881</v>
+        <v>21036</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>8810</v>
+        <v>9474</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>5860</v>
+        <v>6509</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>18113</v>
+        <v>18110</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>13217</v>
+        <v>13971</v>
       </c>
       <c r="H19" s="6" t="inlineStr"/>
       <c r="I19" s="6" t="n">
-        <v>7652</v>
+        <v>6950</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>15656</v>
+        <v>15330</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>30084</v>
+        <v>29545</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>8641</v>
+        <v>8966</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>9208</v>
+        <v>9680</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>29028</v>
+        <v>28224</v>
       </c>
     </row>
     <row r="20">
@@ -2405,34 +2405,34 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>2511</v>
+        <v>2759</v>
       </c>
       <c r="D22" s="6" t="inlineStr"/>
       <c r="E22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>1381</v>
+        <v>1290</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>1847</v>
+        <v>2001</v>
       </c>
       <c r="H22" s="6" t="inlineStr"/>
       <c r="I22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>2445</v>
+        <v>2274</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>6048</v>
+        <v>6164</v>
       </c>
       <c r="L22" s="6" t="inlineStr"/>
       <c r="M22" s="6" t="n">
-        <v>1025</v>
+        <v>1459</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>5021</v>
+        <v>5125</v>
       </c>
     </row>
     <row r="23">
@@ -2443,34 +2443,34 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>12933</v>
+        <v>13524</v>
       </c>
       <c r="D23" s="6" t="inlineStr"/>
       <c r="E23" s="6" t="n">
-        <v>6258</v>
+        <v>7061</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>10021</v>
+        <v>11333</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>10323</v>
+        <v>10956</v>
       </c>
       <c r="H23" s="6" t="inlineStr"/>
       <c r="I23" s="6" t="n">
-        <v>8730</v>
+        <v>7853</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>10076</v>
+        <v>9598</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>20290</v>
+        <v>20634</v>
       </c>
       <c r="L23" s="6" t="inlineStr"/>
       <c r="M23" s="6" t="n">
-        <v>10210</v>
+        <v>11901</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>15939</v>
+        <v>15740</v>
       </c>
     </row>
     <row r="24">
@@ -2573,40 +2573,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>32596</v>
+        <v>31693</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>3887</v>
+        <v>3774</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>6714</v>
+        <v>6115</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>28631</v>
+        <v>27353</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>15752</v>
+        <v>16487</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>898</v>
+        <v>30</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>1926</v>
+        <v>1885</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>22313</v>
+        <v>22164</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>52441</v>
+        <v>52138</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>5712</v>
+        <v>5660</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>10814</v>
+        <v>10379</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>54607</v>
+        <v>53566</v>
       </c>
     </row>
     <row r="27">
@@ -2617,40 +2617,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>59858</v>
+        <v>57932</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>15160</v>
+        <v>14339</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>19662</v>
+        <v>21070</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>56905</v>
+        <v>54006</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>33649</v>
+        <v>34144</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>7982</v>
+        <v>8445</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>11788</v>
+        <v>12090</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>42286</v>
+        <v>41478</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>85889</v>
+        <v>83720</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>18264</v>
+        <v>17613</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>26725</v>
+        <v>27905</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>88464</v>
+        <v>88069</v>
       </c>
     </row>
     <row r="28">
